--- a/generate_report_Py/data/density/Densidad_agua.xlsx
+++ b/generate_report_Py/data/density/Densidad_agua.xlsx
@@ -429,7 +429,7 @@
   <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4:B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
